--- a/data/slmatchups/SLMatchupAverages.xlsx
+++ b/data/slmatchups/SLMatchupAverages.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/slmatchups/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6A69D6BF8740DDF6313BF892443088B35299F7C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{202AA3CC-8144-4A47-ABE4-9150A2191829}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="21300" yWindow="1440" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>X0.0</t>
+  </si>
+  <si>
+    <t>X2.0</t>
+  </si>
+  <si>
+    <t>X3.0</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,167 +396,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>SL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2">
         <v>1.5</v>
       </c>
-      <c r="C2" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" s="2">
+        <v>1.59</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.64</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D5" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="E7" s="2">
+        <v>2.71</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.39</v>
+      </c>
+      <c r="G7" s="2">
         <v>1.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/slmatchups/SLMatchupAverages.xlsx
+++ b/data/slmatchups/SLMatchupAverages.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/slmatchups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6A69D6BF8740DDF6313BF892443088B35299F7C6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{202AA3CC-8144-4A47-ABE4-9150A2191829}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6A69D6BF87B0512BE5CC5611413088B35299F7BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E57ADC-E292-4D7B-9F1C-628E175C6D35}"/>
   <bookViews>
     <workbookView xWindow="21300" yWindow="1440" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>SL</t>
-  </si>
-  <si>
-    <t>X0.0</t>
-  </si>
-  <si>
-    <t>X2.0</t>
-  </si>
-  <si>
-    <t>X3.0</t>
   </si>
 </sst>
 </file>
@@ -92,9 +83,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +389,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,16 +425,16 @@
         <v>1.5</v>
       </c>
       <c r="C2" s="2">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="D2" s="2">
-        <v>1.43</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>1.19</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
+      <c r="F2" s="2">
+        <v>1.33</v>
       </c>
       <c r="G2" s="2">
         <v>0.5</v>
@@ -456,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="C3" s="2">
         <v>1.5</v>
@@ -465,10 +454,10 @@
         <v>1.4</v>
       </c>
       <c r="E3" s="2">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="F3" s="2">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
         <v>1</v>
@@ -479,68 +468,68 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="C4" s="2">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="D4" s="2">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="E4" s="2">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="F4" s="2">
-        <v>1.25</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="B5" s="2">
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="D5" s="2">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="E5" s="2">
         <v>1.22</v>
       </c>
       <c r="F5" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="G5" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>1.1399999999999999</v>
+        <v>1.64</v>
       </c>
       <c r="D6" s="2">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="E6" s="2">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="F6" s="2">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>1.22</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -551,19 +540,19 @@
         <v>2.5</v>
       </c>
       <c r="C7" s="2">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="D7" s="2">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="E7" s="2">
-        <v>2.71</v>
+        <v>1.89</v>
       </c>
       <c r="F7" s="2">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="G7" s="2">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/slmatchups/SLMatchupAverages.xlsx
+++ b/data/slmatchups/SLMatchupAverages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53cb9c05b082722/Documents/apa-rankings/data/slmatchups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6A69D6BF87B0512BE5CC5611413088B35299F7BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E57ADC-E292-4D7B-9F1C-628E175C6D35}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6A69D6BF8740D7030AA2DFD3533088B35299F730" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{573B1835-B7A4-4AAF-BD97-FA102046F686}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="1440" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21105" yWindow="405" windowWidth="15150" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>SL</t>
+  </si>
+  <si>
+    <t>X1.2</t>
+  </si>
+  <si>
+    <t>X0.33</t>
+  </si>
+  <si>
+    <t>X1.0</t>
+  </si>
+  <si>
+    <t>X2.67</t>
+  </si>
+  <si>
+    <t>X1.8</t>
   </si>
 </sst>
 </file>
@@ -83,7 +98,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +406,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,19 +442,19 @@
         <v>1.5</v>
       </c>
       <c r="C2" s="2">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="D2" s="2">
-        <v>1.19</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E2" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.5</v>
+      <c r="G2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -445,22 +462,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="C3" s="2">
         <v>1.5</v>
       </c>
       <c r="D3" s="2">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="E3" s="2">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
+        <v>0.92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -468,19 +485,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="C4" s="2">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="D4" s="2">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="E4" s="2">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="F4" s="2">
-        <v>1.1200000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G4" s="2">
         <v>0.56999999999999995</v>
@@ -491,62 +508,62 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="C5" s="2">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="D5" s="2">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="E5" s="2">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="F5" s="2">
-        <v>1.17</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="G5" s="2">
-        <v>0.72</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="D6" s="2">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="E6" s="2">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="F6" s="2">
         <v>1.0900000000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>1.1299999999999999</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.8</v>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D7" s="2">
         <v>2.29</v>
       </c>
       <c r="E7" s="2">
-        <v>1.89</v>
+        <v>2.09</v>
       </c>
       <c r="F7" s="2">
         <v>1.43</v>
